--- a/InputFiles/CTDC/TC01_CTDC_AnatomCollecSite-AbdomWall.xlsx
+++ b/InputFiles/CTDC/TC01_CTDC_AnatomCollecSite-AbdomWall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CTDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBDBEA-A718-4A5F-8C33-088632236B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CED9FE-9129-42F4-B1FF-70CC65C9120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -68,6 +68,111 @@
     <t>TC01_CTDC_AnatomCollecSite-AbdomWall_WebData.xlsx</t>
   </si>
   <si>
+    <t>SELECT 
+    COUNT(DISTINCT std.study_id) AS Studies,
+    COUNT(DISTINCT prt.participant_id) AS Participants,
+    COUNT(DISTINCT dgn.ctep_disease_term) AS Diagnoses,
+    COUNT(DISTINCT tgt.targeted_therapy) AS "Targeted Therapies",
+    COUNT(DISTINCT bio.specimen_record_id) AS Biospecimens,
+    COUNT(DISTINCT fil.data_file_uuid) AS Files
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt 
+        ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN 
+    df_diagnosis dgn 
+        ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_demographic demo 
+        ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN 
+    df_exposure exp 
+        ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN 
+    df_targeted_therapy tgt 
+        ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN 
+    df_non_targeted_therapy ntt 
+        ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN 
+    df_participant_status pst 
+        ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN 
+    df_biospecimen bio 
+        ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN 
+    df_file fil 
+        ON prt.participant_id = fil."participant.participant_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+    AND bio.anatomical_collection_site = 'Abdominal Wall';</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    fil.data_file_name AS "File Name",
+    LOWER(fil.data_file_format) AS "Format",
+    fil.data_file_type AS "File Type",
+CASE     
+    WHEN fil.data_file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 2) 
+                 = CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
+            THEN CAST(CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN fil.data_file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fil.data_file_size / (1024.0 * 1024.0), 2)
+                 = CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0), 0) AS INT)
+            THEN CAST(CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(fil.data_file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN fil.data_file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(fil.data_file_size / 1024.0, 2)
+                 = CAST(ROUND(fil.data_file_size / 1024.0, 0) AS INT)
+            THEN CAST(CAST(ROUND(fil.data_file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(fil.data_file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(fil.data_file_size, 2)
+                 = CAST(ROUND(fil.data_file_size, 0) AS INT)
+            THEN CAST(CAST(ROUND(fil.data_file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(fil.data_file_size, 2) || ' Bytes'
+        END
+    END AS "Size",
+    fil.data_file_description AS "Description",
+    fil."specimen.specimen_record_id" AS "Specimen Record ID",
+    prt.participant_id AS "Participant ID",
+    dgn.ctep_disease_term AS "Diagnosis"
+FROM df_study std
+LEFT JOIN df_participant prt 
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn 
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo 
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp 
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt 
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt 
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst 
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio 
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil 
+    ON bio.specimen_record_id = fil."specimen.specimen_record_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+    AND bio.anatomical_collection_site = 'Abdominal Wall'
+    AND fil.data_file_name IS NOT NULL
+LIMIT 100;</t>
+  </si>
+  <si>
     <t>SELECT
     prt.participant_id AS "Participant ID",
     dgn.ctep_disease_term AS "Diagnosis",
@@ -76,36 +181,35 @@
     demo.race AS "Race",
     demo.ethnicity AS "Ethnicity",
     exp.carcinogen_exposure AS "Carcinogen Exposure",
-    REPLACE(GROUP_CONCAT(DISTINCT tgt.targeted_therapy), ',', ', ') AS "Targeted Therapy"
+    REPLACE(
+        GROUP_CONCAT(
+            DISTINCT
+            UPPER(SUBSTR(LOWER(tgt.targeted_therapy), 1, 1)) ||
+            SUBSTR(LOWER(tgt.targeted_therapy), 2)
+        ),
+        ',',
+        ', '
+    ) AS "Targeted Therapy"
 FROM 
     df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
+LEFT JOIN df_participant prt 
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn 
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo 
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp 
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt 
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt 
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst 
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio 
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil 
+    ON prt.participant_id = fil."participant.participant_id"
 WHERE 
     std.study_id = 'NCT04314401'
     AND bio.anatomical_collection_site = 'Abdominal Wall'
@@ -120,47 +224,6 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT 
-    COUNT(DISTINCT std.study_id) AS Studies,
-    COUNT(DISTINCT prt.participant_id) AS Participants,
-    COUNT(DISTINCT dgn.ctep_disease_term) AS Diagnoses,
-    COUNT(DISTINCT tgt.targeted_therapy) AS "Targeted Therapies",
-    COUNT(DISTINCT bio.specimen_record_id) AS Biospecimens,
-    COUNT(DISTINCT fil.data_file_uuid) AS Files
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401'
-    AND bio.anatomical_collection_site = 'Abdominal Wall';</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT
     prt.participant_id AS "Participant ID",
     dgn.ctep_disease_term AS "Diagnosis",
@@ -202,103 +265,14 @@
     std.study_id = 'NCT04314401' AND bio.anatomical_collection_site = 'Abdominal Wall'
 LIMIT 100;</t>
   </si>
-  <si>
-    <t>SELECT DISTINCT
-    fil.data_file_name AS "File Name",
-    fil.data_file_format AS "Format",
-    fil.data_file_type AS "File Type",
-CASE     
-    WHEN fil.data_file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fil.data_file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fil.data_file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fil.data_file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fil.data_file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fil.data_file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fil.data_file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fil.data_file_size / 1024.0, 2) = CAST(ROUND(fil.data_file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fil.data_file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fil.data_file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fil.data_file_size, 2) = CAST(ROUND(fil.data_file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fil.data_file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fil.data_file_size, 2) || ' Bytes'
-        END
-    END AS "Size",
-    fil.data_file_description AS "Description",
-    fil."specimen.specimen_record_id" AS "Specimen Record ID",
-    prt.participant_id AS "Participant ID",
-    dgn.ctep_disease_term AS "Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON bio.specimen_record_id = fil."specimen.specimen_record_id"
-WHERE 
-    std.study_id = 'NCT04314401' AND bio.anatomical_collection_site = 'Abdominal Wall' AND fil.data_file_name IS NOT NULL
-LIMIT 100;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,20 +325,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -690,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,13 +689,13 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -742,15 +707,15 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -758,7 +723,7 @@
       <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
